--- a/data.xlsx
+++ b/data.xlsx
@@ -26,16 +26,16 @@
     <t xml:space="preserve">Plant</t>
   </si>
   <si>
-    <t xml:space="preserve">Botanical Name</t>
+    <t xml:space="preserve">Botanical_Name</t>
   </si>
   <si>
     <t xml:space="preserve">Family</t>
   </si>
   <si>
-    <t xml:space="preserve">Part Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active Compounds</t>
+    <t xml:space="preserve">Part_Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active_Compounds</t>
   </si>
   <si>
     <t xml:space="preserve">Properties</t>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.94921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
